--- a/BPS_FH_Dataset/17/chords.xlsx
+++ b/BPS_FH_Dataset/17/chords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\17 r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\17 r\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="155">
   <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,17 +1017,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>32</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>35</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>36</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>39</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>41</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>78</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>96</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>112</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>120</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>128</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>136</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>144</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>148</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>160</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>176</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>192</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>216</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>218</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>224</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>226</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>232</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>234</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>237</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>238</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>241</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>242</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>243</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>244</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>245</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>246</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>247</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>248</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>250</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>256</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>258</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>264</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>266</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>272</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>276</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>280</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>284</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>288</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>292</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>296</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>298</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>300</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>302</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>304</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>306</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>308</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>310</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>312</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>314</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>316</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>318</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>320</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>322</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>324</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>326</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>328</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>330</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>332</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>334</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>336</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>338</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>340</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>342</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>344</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>368</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>375</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>376</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>377</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>378</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>379</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>380</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>381</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>382</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>383</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>384</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>385</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>386</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>387</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>388</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>390</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>392</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>399</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>400</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>403</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>404</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>407</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>409</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>413</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>416</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>446</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>448</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>464</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>480</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>488</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>496</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>504</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>512</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>516</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>528</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>544</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>560</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>584</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>586</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>592</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>594</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>600</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>602</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>605</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>606</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>609</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>610</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>611</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>612</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>613</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>614</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>615</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>616</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>618</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>624</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>626</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>632</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>634</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>640</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>644</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>648</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>652</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>656</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>660</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>664</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>666</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>668</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>670</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>672</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>674</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>676</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>678</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>680</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>682</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>684</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>686</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>688</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>690</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>692</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>694</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>696</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>698</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>700</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>702</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>704</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>706</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>708</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>710</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>712</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>736</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>744</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>752</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>760</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>776</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>792</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>800</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>808</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>816</v>
       </c>
@@ -5328,9 +5328,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B188" s="1">
         <v>832</v>
@@ -5351,7 +5351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>832</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>840</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>844</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>848</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>854</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>856</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>858</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>860</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>862</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>864</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>868</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>870</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>872</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>874</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>876</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>878</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>880</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>886</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>888</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>890</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>892</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>894</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>896</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>900</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>904</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>908</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>912</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>920</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>936</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>959</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>960</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>961</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>962</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>963</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>964</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>965</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>966</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>967</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>968</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>969</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>970</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>971</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>972</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>974</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>976</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>984</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>996</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>1000</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>1008</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>1016</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>1024</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1032</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>1040</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>1048</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>1064</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1080</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" ref="A245:B264" si="0">A38+888</f>
         <v>1104</v>
@@ -6664,7 +6664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="0"/>
         <v>1106</v>
@@ -6689,7 +6689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="0"/>
         <v>1112</v>
@@ -6714,7 +6714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="0"/>
         <v>1114</v>
@@ -6739,7 +6739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="0"/>
         <v>1120</v>
@@ -6764,7 +6764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="0"/>
         <v>1122</v>
@@ -6789,7 +6789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="0"/>
         <v>1125</v>
@@ -6814,7 +6814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="0"/>
         <v>1126</v>
@@ -6839,7 +6839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="0"/>
         <v>1129</v>
@@ -6864,7 +6864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="0"/>
         <v>1130</v>
@@ -6889,7 +6889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="0"/>
         <v>1131</v>
@@ -6914,7 +6914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="0"/>
         <v>1132</v>
@@ -6939,7 +6939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="0"/>
         <v>1133</v>
@@ -6964,7 +6964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="0"/>
         <v>1134</v>
@@ -6989,7 +6989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="0"/>
         <v>1135</v>
@@ -7014,7 +7014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="0"/>
         <v>1136</v>
@@ -7039,7 +7039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="0"/>
         <v>1138</v>
@@ -7064,7 +7064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" si="0"/>
         <v>1144</v>
@@ -7089,7 +7089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="0"/>
         <v>1146</v>
@@ -7114,7 +7114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="0"/>
         <v>1152</v>
@@ -7139,7 +7139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" ref="A265:B284" si="1">A58+888</f>
         <v>1154</v>
@@ -7164,7 +7164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="1"/>
         <v>1160</v>
@@ -7189,7 +7189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="1"/>
         <v>1164</v>
@@ -7214,7 +7214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="1"/>
         <v>1168</v>
@@ -7239,7 +7239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="1"/>
         <v>1172</v>
@@ -7264,7 +7264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="1"/>
         <v>1176</v>
@@ -7289,7 +7289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="1"/>
         <v>1180</v>
@@ -7314,7 +7314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="1"/>
         <v>1184</v>
@@ -7339,7 +7339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="1"/>
         <v>1186</v>
@@ -7364,7 +7364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="1"/>
         <v>1188</v>
@@ -7389,7 +7389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="1"/>
         <v>1190</v>
@@ -7414,7 +7414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="1"/>
         <v>1192</v>
@@ -7439,7 +7439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="1"/>
         <v>1194</v>
@@ -7464,7 +7464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="1"/>
         <v>1196</v>
@@ -7489,7 +7489,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="1"/>
         <v>1198</v>
@@ -7514,7 +7514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -7539,7 +7539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="1"/>
         <v>1202</v>
@@ -7564,7 +7564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="1"/>
         <v>1204</v>
@@ -7589,7 +7589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="1"/>
         <v>1206</v>
@@ -7614,7 +7614,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="1"/>
         <v>1208</v>
@@ -7639,9 +7639,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <f t="shared" ref="A285:B304" si="2">A78+888</f>
+        <f t="shared" ref="A285:B296" si="2">A78+888</f>
         <v>1210</v>
       </c>
       <c r="B285">
@@ -7664,7 +7664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="2"/>
         <v>1212</v>
@@ -7689,7 +7689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="2"/>
         <v>1214</v>
@@ -7714,7 +7714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="2"/>
         <v>1216</v>
@@ -7739,7 +7739,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="2"/>
         <v>1218</v>
@@ -7764,7 +7764,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="2"/>
         <v>1220</v>
@@ -7789,7 +7789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="2"/>
         <v>1222</v>
@@ -7814,7 +7814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="2"/>
         <v>1224</v>
@@ -7839,7 +7839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="2"/>
         <v>1226</v>
@@ -7864,7 +7864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="2"/>
         <v>1228</v>
@@ -7889,7 +7889,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="2"/>
         <v>1230</v>
@@ -7914,7 +7914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="2"/>
         <v>1232</v>
